--- a/trunk/Wip/DES_DOCS/scenarioAMSED.xlsx
+++ b/trunk/Wip/DES_DOCS/scenarioAMSED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\SVN\Wip\DES_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Giới thiệu sơ lược về E-commerce hiện nay</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Hệ thống này giải quyết được vấn đề gì</t>
-  </si>
-  <si>
-    <t xml:space="preserve">càng ngày việc mua hàng online càng phổ biến ở Việt Nam. Chỉ cần 1 click chuột, hay 1 cuốc điện thoại, người tiêu dùng đã có thể đặt được món hàng mình thích mà không cần phải đi đâu cả. Có rất nhiều web bán hàng online hiện nay, vd như: 5s, enbac hay là bán hàng thông qua các trang mạng xã hội (như facebook) </t>
   </si>
   <si>
     <t>Các hình thức giao hàng hiện nay:
@@ -63,33 +60,61 @@
     <t>Demo</t>
   </si>
   <si>
-    <t>- Vì không thể apply Buffer box vào vn, nên chúng tôi thực hiện hệ thống này. Hiện nay, ở VN các convenient shop được mọc lên ở mọi nơi, các cửa hàng này mở cửa 24/7, người mua hàng có thể ghé đến đây để lấy hàng bất kì lúc nào thuận tiện. Chỉ cần sau khi order, người mua hàng sẽ có được passcode, sau vài ngày sẽ nhận được 1 cuộc điện thoại, thông báo hàng đã đến shop mà người mua hàng đã đăng kí trước đó. Từ lúc này, người mua hàng có thể đến shop nhận hàng bất cứ lúc nào tùy thích.</t>
-  </si>
-  <si>
     <t>bất cập của hệ thống</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>- càng ngày việc mua hàng online càng phổ biến ở Việt Nam. Chỉ cần 1 click chuột, hay 1 cuốc điện thoại, người tiêu dùng đã có thể đặt được món hàng mình thích mà không cần phải đi đâu cả. Có rất nhiều web bán hàng online hiện nay, vd như: 5s, enbac hay là bán hàng thông qua các trang mạng xã hội (như facebook) 
+- Đến nay, hầu như các công ty đã có trang web bán hàng trực tuyến, vd như : thegioididong, thien hoa, nguyen kim,...
+- Lợi ích của E-commerce:
+    + tiết kiệm thời gian di chuyển cho người mua hàng
+    + Người mua hàng có thể tìm kiếm món hàng ưa thích dễ dàng
+    + Hỗ trợ thanh toán trực tuyến: thông qua ATM, internet banking, ...
+- Hạn chế của E-commerce:
+   + khó khăn trong việc giao hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Với tình hình an ninh ở VN hiện nay, không thể để những cái tủ ở nơi công cộng( chi phí bảo trì cao, dễ bị mất cắp bởi trộm)
++ những cái tủ bán nước giải khát tự động ở VN, xuất hiện cũng đã lâu nhưng có được bao nhiêu người sử dụng? Và khi sử dụng có thành công không? (người mua phải sử dụng tiền xu, or tiền giấy phải thẳng nếp, những cái máy này bị hư hỏng bởi trời mưa, bởi sự nghịch ngợm của con người) </t>
   </si>
   <si>
     <t>- không cần sử dụng những chiếc tủ, không tốn tiền thuê chỗ để đặt tủ, không phải thuê người canh giữ tủ, không sợ bị mất cắp 
 - có thể nhận hàng bất kì lúc nào, nơi nào người mua hàng cảm thấy thuận tiện
 - tiết kiệm chi phí cho người bán hàng , người mua hàng
 - người bán hàng không cần phải lo khoản giao hàng cho người mua
-- những người mua hàng ở vùng ven cũng có thể mua hàng (order đến convenient shop mà mình có thể ghé lấy)</t>
-  </si>
-  <si>
-    <t>- Với tình hình an ninh ở VN hiện nay, không thể để những cái tủ ở nơi công cộng( chi phí bảo trì cao, dễ bị mất cắp bởi trộm)
-+ những cái tủ bán nước giải khát tự động ở VN, xuất hiện cũng đã lâu nhưng có</t>
-  </si>
-  <si>
-    <t>- hàng được để ở convenient shop trong 1 khoảng thời gian nhất định, sau thời gian này người mua chưa nhận, hàng sẽ được công ty giao nhận thu gom lại
+- những người mua hàng ở vùng ven cũng có thể mua hàng (order đến convenience store mà mình có thể ghé lấy)</t>
+  </si>
+  <si>
+    <t>- hàng được để ở convenience store trong 1 khoảng thời gian nhất định, sau thời gian này người mua chưa nhận, hàng sẽ được công ty giao nhận thu gom lại
 - người bán hàng phải trải qua nhiều giai đoạn (approve order, approve pricing,...)</t>
+  </si>
+  <si>
+    <t>- Vì không thể apply Buffer box một cách hoàn toàn vào vn, nên chúng tôi thực hiện hệ thống này. Hiện nay, ở VN các convenience store(FamilyMart, NewChợ, BigC Express, Shop &amp; Go) được mọc lên ở mọi nơi, các cửa hàng này mở cửa 24/7, người mua hàng có thể ghé đến đây để lấy hàng bất kì lúc nào thuận tiện. Vì thế chúng tôi muốn kết hợp với những convenience store này vào hệ thống của chúng  tôi.Cụ thể là thay vì những gói hàng được đặt trong bufferbox thì chúng tôi sẽ đặt những gói hàng này ở những convenience Store.
+phương thức nhận hàng: Chỉ cần sau khi order, người mua hàng sẽ có được passcode, sau vài ngày sẽ nhận được 1 cuộc điện thoại, thông báo hàng đã đến shop mà người mua hàng đã đăng kí trước đó. Từ lúc này, người mua hàng có thể đến shop nhận hàng bất cứ lúc nào tùy thích.Người mua có thể đổi hoặc trả hàng nếu không ưng ý.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,17 +138,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,85 +458,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>